--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,22 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把Git的项目生成eclipse工程文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -400,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,17 +424,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
   </cols>
@@ -454,7 +470,24 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,31 @@
   </si>
   <si>
     <t>完善测试类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RoleManagerImpl\UserManagerImpl
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,6 +184,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,7 +460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,6 +549,34 @@
       </c>
       <c r="E4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,30 @@
   </si>
   <si>
     <t>为实体类加注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jira的相关知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对jira进行安装并了解相关操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,9 +1100,11 @@
         <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1087,7 +1113,9 @@
       <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>88</v>
       </c>
@@ -1108,7 +1136,9 @@
       <c r="D23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1117,7 +1147,12 @@
       <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1177,7 +1212,6 @@
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">

--- a/doc/log/log_201608040216_zhangshuaiyin.xlsx
+++ b/doc/log/log_201608040216_zhangshuaiyin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="113">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,70 @@
   </si>
   <si>
     <t>待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装idea了解相关配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习HTML标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解css，JavaScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善相关文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解js/jQuery框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1153,7 +1217,9 @@
       <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -1162,8 +1228,15 @@
       <c r="B25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -1172,8 +1245,15 @@
       <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -1182,8 +1262,15 @@
       <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -1192,8 +1279,15 @@
       <c r="B28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1202,8 +1296,15 @@
       <c r="B29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -1212,7 +1313,15 @@
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1221,8 +1330,15 @@
       <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E32" s="6"/>
